--- a/codebase/ext/generic/cfg/WFTemplate.addition.xlsx
+++ b/codebase/ext/generic/cfg/WFTemplate.addition.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E3193D-D160-8E47-9F7C-47F768E00083}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AEDB177-6FEE-4A2F-BD1E-BBCCABDC2760}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WFTemplate" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
   <si>
     <t>审核</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,13 +105,20 @@
   <si>
     <t>/netmarkets/jsp/ext/appo/change/taskpage/APPO_ECNWF/Approval.jsp</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/netmarkets/jsp/ext/appo/change/taskpage/APPO_ECNWF/Edit.jsp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -495,26 +502,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="90.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="90.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
         <v>7</v>
@@ -523,184 +530,193 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1"/>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1"/>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" t="s">
         <v>4</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>19</v>
       </c>
     </row>

--- a/codebase/ext/generic/cfg/WFTemplate.addition.xlsx
+++ b/codebase/ext/generic/cfg/WFTemplate.addition.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AEDB177-6FEE-4A2F-BD1E-BBCCABDC2760}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F909B1B5-A62C-4903-A0ED-51657FEB67AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
   <si>
     <t>审核</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,6 +112,14 @@
   </si>
   <si>
     <t>/netmarkets/jsp/ext/appo/change/taskpage/APPO_ECNWF/Edit.jsp</t>
+  </si>
+  <si>
+    <t>编制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/netmarkets/jsp/ext/appo/change/taskpage/APPO_ECNWF/Edit.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -502,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -522,104 +530,103 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
@@ -628,7 +635,7 @@
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
@@ -637,66 +644,66 @@
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="1"/>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C22" t="s">
         <v>19</v>
@@ -705,7 +712,7 @@
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
         <v>19</v>
@@ -714,9 +721,18 @@
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" t="s">
         <v>4</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>19</v>
       </c>
     </row>
